--- a/BalanceSheet/CARR_bal.xlsx
+++ b/BalanceSheet/CARR_bal.xlsx
@@ -230,19 +230,19 @@
         </is>
       </c>
       <c r="B4" s="0" t="n">
-        <v>-248000000.0</v>
+        <v>1854000000.0</v>
       </c>
       <c r="C4" s="0" t="n">
-        <v>-3000000.0</v>
+        <v>1629000000.0</v>
       </c>
       <c r="D4" s="0" t="n">
-        <v>88000000.0</v>
+        <v>1581000000.0</v>
       </c>
       <c r="E4" s="0" t="n">
-        <v>-61000000.0</v>
+        <v>1639000000.0</v>
       </c>
       <c r="F4" s="0" t="n">
-        <v>-264000000.0</v>
+        <v>1556000000.0</v>
       </c>
       <c r="G4" s="0" t="n">
         <v>1332000000.0</v>
@@ -698,19 +698,19 @@
         </is>
       </c>
       <c r="B14" s="0" t="n">
-        <v>151000000.0</v>
+        <v>2175000000.0</v>
       </c>
       <c r="C14" s="0" t="n">
-        <v>-292000000.0</v>
+        <v>1936000000.0</v>
       </c>
       <c r="D14" s="0" t="n">
-        <v>377000000.0</v>
+        <v>2019000000.0</v>
       </c>
       <c r="E14" s="0" t="n">
-        <v>176000000.0</v>
+        <v>1765000000.0</v>
       </c>
       <c r="F14" s="0" t="n">
-        <v>-24000000.0</v>
+        <v>1776000000.0</v>
       </c>
       <c r="G14" s="0" t="n">
         <v>1701000000.0</v>
@@ -1188,19 +1188,19 @@
         </is>
       </c>
       <c r="B24" s="0" t="n">
-        <v>-2000000.0</v>
+        <v>16000000.0</v>
       </c>
       <c r="C24" s="0" t="n">
-        <v>-24000000.0</v>
+        <v>30000000.0</v>
       </c>
       <c r="D24" s="0" t="n">
-        <v>-14000000.0</v>
+        <v>32000000.0</v>
       </c>
       <c r="E24" s="0" t="n">
         <v>26000000.0</v>
       </c>
       <c r="F24" s="0" t="n">
-        <v>135000000.0</v>
+        <v>707000000.0</v>
       </c>
       <c r="G24" s="0" t="n">
         <v>1099000000.0</v>
@@ -1953,7 +1953,7 @@
         <v>11187000000.0</v>
       </c>
       <c r="G40" s="0" t="n">
-        <v>207000000.0</v>
+        <v>-633000000.0</v>
       </c>
       <c r="H40" s="0" t="inlineStr">
         <is>
@@ -2001,7 +2001,7 @@
         <v>11955000000.0</v>
       </c>
       <c r="G41" s="0" t="n">
-        <v>1159000000.0</v>
+        <v>319000000.0</v>
       </c>
       <c r="H41" s="0" t="inlineStr">
         <is>
